--- a/tests/test_xlsx_test.xlsx
+++ b/tests/test_xlsx_test.xlsx
@@ -8,25 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carol/Desktop/Repo/06_工作周报/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D2A710-C4E1-8747-87F3-89BEC5326437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B82190-3988-D741-B629-DDF37FE7F3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1120" windowWidth="21160" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="900" windowWidth="24500" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作任务项" sheetId="1" r:id="rId1"/>
     <sheet name="统计-1" sheetId="2" r:id="rId2"/>
+    <sheet name="统计-2" sheetId="3" r:id="rId3"/>
+    <sheet name="统计-3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>序号</t>
+  </si>
+  <si>
+    <t>姓名</t>
   </si>
   <si>
     <t>日期（年/月/日）</t>
@@ -42,6 +47,9 @@
   </si>
   <si>
     <t>工作量（小时）</t>
+  </si>
+  <si>
+    <t>张三</t>
   </si>
   <si>
     <t>xx模块详细设计文档编写</t>
@@ -66,6 +74,9 @@
   </si>
   <si>
     <t>通过选择曲面创建xx开发</t>
+  </si>
+  <si>
+    <t>李四</t>
   </si>
   <si>
     <t>xx功能：功能自测</t>
@@ -125,7 +136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,9 +157,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -165,6 +173,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -199,7 +210,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[test_xlsx_test.xlsx]统计-1!数据透视表2</c:name>
+    <c:name>[test_xlsx_test.xlsx]统计-2!数据透视表1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -219,6 +230,630 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'统计-2'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10/14/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'统计-2'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>测试</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>开发</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>其他</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>设计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'统计-2'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4367-0142-83C4-C552B1908BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'统计-2'!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10/15/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'统计-2'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>测试</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>开发</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>其他</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>设计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'统计-2'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4367-0142-83C4-C552B1908BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'统计-2'!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10/18/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'统计-2'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>测试</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>开发</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>其他</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>设计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'统计-2'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4367-0142-83C4-C552B1908BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'统计-2'!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10/19/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'统计-2'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>测试</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>开发</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>其他</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>设计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'统计-2'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4367-0142-83C4-C552B1908BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'统计-2'!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10/20/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'统计-2'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>测试</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>开发</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>其他</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>设计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'统计-2'!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4367-0142-83C4-C552B1908BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1432618496"/>
+        <c:axId val="1432620176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1432618496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1432620176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1432620176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1432618496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[test_xlsx_test.xlsx]统计-3!数据透视表2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -234,6 +869,13 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -249,6 +891,13 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -264,6 +913,13 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -279,6 +935,13 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -393,7 +1056,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'统计-1'!$B$1:$B$2</c:f>
+              <c:f>'统计-3'!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -405,48 +1068,33 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'统计-1'!$A$3:$A$9</c:f>
+              <c:f>'统计-3'!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>xx功能：功能自测</c:v>
+                  <c:v>李四</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xx功能底层代码开发</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>xx会议</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>xx模块详细设计文档编写</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>通过选择曲面创建xx开发</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>通过选择整个模型创建xx开发</c:v>
+                  <c:v>张三</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'统计-1'!$B$3:$B$9</c:f>
+              <c:f>'统计-3'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6051-0144-A64A-1B442A4158E8}"/>
+              <c16:uniqueId val="{00000000-6946-3748-BE05-05F24372E58E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -455,7 +1103,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'统计-1'!$C$1:$C$2</c:f>
+              <c:f>'统计-3'!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -476,37 +1124,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'统计-1'!$A$3:$A$9</c:f>
+              <c:f>'统计-3'!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>xx功能：功能自测</c:v>
+                  <c:v>李四</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xx功能底层代码开发</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>xx会议</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>xx模块详细设计文档编写</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>通过选择曲面创建xx开发</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>通过选择整个模型创建xx开发</c:v>
+                  <c:v>张三</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'统计-1'!$C$3:$C$9</c:f>
+              <c:f>'统计-3'!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="5">
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -514,7 +1150,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6051-0144-A64A-1B442A4158E8}"/>
+              <c16:uniqueId val="{00000001-6946-3748-BE05-05F24372E58E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -523,7 +1159,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'统计-1'!$D$1:$D$2</c:f>
+              <c:f>'统计-3'!$D$1:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -544,48 +1180,33 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'统计-1'!$A$3:$A$9</c:f>
+              <c:f>'统计-3'!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>xx功能：功能自测</c:v>
+                  <c:v>李四</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xx功能底层代码开发</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>xx会议</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>xx模块详细设计文档编写</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>通过选择曲面创建xx开发</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>通过选择整个模型创建xx开发</c:v>
+                  <c:v>张三</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'统计-1'!$D$3:$D$9</c:f>
+              <c:f>'统计-3'!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6051-0144-A64A-1B442A4158E8}"/>
+              <c16:uniqueId val="{00000002-6946-3748-BE05-05F24372E58E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -594,7 +1215,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'统计-1'!$E$1:$E$2</c:f>
+              <c:f>'统计-3'!$E$1:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -615,36 +1236,24 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'统计-1'!$A$3:$A$9</c:f>
+              <c:f>'统计-3'!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>xx功能：功能自测</c:v>
+                  <c:v>李四</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xx功能底层代码开发</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>xx会议</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>xx模块详细设计文档编写</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>通过选择曲面创建xx开发</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>通过选择整个模型创建xx开发</c:v>
+                  <c:v>张三</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'统计-1'!$E$3:$E$9</c:f>
+              <c:f>'统计-3'!$E$3:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -653,7 +1262,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6051-0144-A64A-1B442A4158E8}"/>
+              <c16:uniqueId val="{00000003-6946-3748-BE05-05F24372E58E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -662,7 +1271,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'统计-1'!$F$1:$F$2</c:f>
+              <c:f>'统计-3'!$F$1:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -683,48 +1292,33 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'统计-1'!$A$3:$A$9</c:f>
+              <c:f>'统计-3'!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>xx功能：功能自测</c:v>
+                  <c:v>李四</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xx功能底层代码开发</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>xx会议</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>xx模块详细设计文档编写</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>通过选择曲面创建xx开发</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>通过选择整个模型创建xx开发</c:v>
+                  <c:v>张三</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'统计-1'!$F$3:$F$9</c:f>
+              <c:f>'统计-3'!$F$3:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6051-0144-A64A-1B442A4158E8}"/>
+              <c16:uniqueId val="{00000004-6946-3748-BE05-05F24372E58E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -738,11 +1332,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="876505599"/>
-        <c:axId val="876507279"/>
+        <c:axId val="1426366272"/>
+        <c:axId val="1427078048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="876505599"/>
+        <c:axId val="1426366272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +1379,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="876507279"/>
+        <c:crossAx val="1427078048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -793,7 +1387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="876507279"/>
+        <c:axId val="1427078048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +1438,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="876505599"/>
+        <c:crossAx val="1426366272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -896,23 +1490,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -934,13 +1569,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="656" refreshedDate="44488.686515740737" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="9" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="656" refreshedDate="44488.863156018517" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="9" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F10" sheet="工作任务项"/>
+    <worksheetSource ref="A1:G10" sheet="工作任务项"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="7">
     <cacheField name="序号" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
+    </cacheField>
+    <cacheField name="姓名" numFmtId="0">
+      <sharedItems count="2">
+        <s v="张三"/>
+        <s v="李四"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="日期（年/月/日）" numFmtId="30">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-10-14T00:00:00" maxDate="2021-10-21T00:00:00" count="5">
@@ -965,10 +1606,15 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="类型" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="4">
+        <s v="设计"/>
+        <s v="开发"/>
+        <s v="测试"/>
+        <s v="其他"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="工作量（小时）" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="7"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -985,81 +1631,91 @@
     <n v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="重构线"/>
-    <s v="设计"/>
-    <n v="1"/>
+    <x v="0"/>
+    <n v="4"/>
   </r>
   <r>
     <n v="2"/>
     <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
     <s v="任务线"/>
-    <s v="开发"/>
+    <x v="1"/>
     <n v="3"/>
   </r>
   <r>
     <n v="3"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <s v="任务线"/>
-    <s v="开发"/>
+    <x v="1"/>
     <n v="7"/>
   </r>
   <r>
     <n v="4"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <s v="任务线"/>
-    <s v="开发"/>
+    <x v="1"/>
     <n v="5"/>
   </r>
   <r>
     <n v="5"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="3"/>
     <s v="任务线"/>
-    <s v="开发"/>
+    <x v="1"/>
     <n v="2"/>
   </r>
   <r>
     <n v="6"/>
+    <x v="1"/>
     <x v="3"/>
     <x v="4"/>
     <s v="任务线"/>
-    <s v="测试"/>
+    <x v="2"/>
     <n v="7"/>
   </r>
   <r>
     <n v="7"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="4"/>
     <s v="任务线"/>
-    <s v="测试"/>
+    <x v="2"/>
     <n v="7"/>
   </r>
   <r>
     <n v="8"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="4"/>
     <s v="任务线"/>
-    <s v="测试"/>
+    <x v="2"/>
     <n v="2"/>
   </r>
   <r>
     <n v="9"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="5"/>
     <s v="其他"/>
-    <s v="其他"/>
+    <x v="3"/>
     <n v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" numFmtId="30" showAll="0">
       <items count="6">
@@ -1087,7 +1743,7 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="3"/>
   </rowFields>
   <rowItems count="7">
     <i>
@@ -1113,7 +1769,7 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="1"/>
+    <field x="2"/>
   </colFields>
   <colItems count="6">
     <i>
@@ -1136,13 +1792,13 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="求和项:工作量（小时）" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="求和项:工作量（小时）" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="10">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="1" selected="0">
+          <reference field="2" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -1151,7 +1807,7 @@
     <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="1" selected="0">
+          <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -1160,7 +1816,7 @@
     <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="1" selected="0">
+          <reference field="2" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -1169,7 +1825,7 @@
     <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="1" selected="0">
+          <reference field="2" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -1178,7 +1834,7 @@
     <chartFormat chart="0" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="1" selected="0">
+          <reference field="2" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
@@ -1190,7 +1846,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="1" count="1" selected="0">
+          <reference field="2" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -1202,7 +1858,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="1" count="1" selected="0">
+          <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -1214,7 +1870,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="1" count="1" selected="0">
+          <reference field="2" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -1226,7 +1882,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="1" count="1" selected="0">
+          <reference field="2" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -1238,7 +1894,336 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="1" count="1" selected="0">
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:G7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" numFmtId="30" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:工作量（小时）" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="数据透视表2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:G5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" numFmtId="30" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:工作量（小时）" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
@@ -1554,217 +2539,247 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="29" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
         <v>44483</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44483</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44484</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44487</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44487</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44488</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44489</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="F2" s="2">
-        <v>4</v>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44489</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44483</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>44484</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44487</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>44487</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44488</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
         <v>44489</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44489</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44489</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1781,23 +2796,23 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -1806,31 +2821,31 @@
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4">
         <v>44483</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>44484</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>44487</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>44488</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>44489</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
+      <c r="A3" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1846,8 +2861,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
+      <c r="A4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="8">
         <v>3</v>
@@ -1861,8 +2876,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
+      <c r="A5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1876,23 +2891,23 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
+      <c r="A6" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
+      <c r="A7" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1906,8 +2921,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
+      <c r="A8" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8">
@@ -1923,11 +2938,11 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
+      <c r="A9" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8">
         <v>7</v>
@@ -1942,7 +2957,270 @@
         <v>13</v>
       </c>
       <c r="G9" s="8">
-        <v>38</v>
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44483</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44484</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44487</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44488</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44489</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44483</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44484</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44487</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44488</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44489</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
